--- a/Streamlit + Ollama/TEST_DATA.xlsx
+++ b/Streamlit + Ollama/TEST_DATA.xlsx
@@ -82,13 +82,13 @@
     <t xml:space="preserve">Sími</t>
   </si>
   <si>
-    <t xml:space="preserve">Hringdu ehf.</t>
+    <t xml:space="preserve">Símafyrirtæki</t>
   </si>
   <si>
     <t xml:space="preserve">Þjónustugjald</t>
   </si>
   <si>
-    <t xml:space="preserve">Landsbankinn hf.</t>
+    <t xml:space="preserve">Bankinn hf.</t>
   </si>
   <si>
     <t xml:space="preserve">Greiðsludreifing</t>
@@ -192,7 +192,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,6 +214,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,11 +350,11 @@
   </sheetPr>
   <dimension ref="A5:E98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H80" activeCellId="0" sqref="H80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.43"/>
@@ -528,7 +532,7 @@
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="5" t="n">
@@ -560,7 +564,7 @@
       <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="5" t="n">
@@ -660,7 +664,7 @@
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="5" t="n">
@@ -777,7 +781,7 @@
       <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="5" t="n">
@@ -928,7 +932,7 @@
       <c r="B39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="5" t="n">
@@ -1030,7 +1034,7 @@
       <c r="B45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="5" t="n">
@@ -1149,7 +1153,7 @@
       <c r="B52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="5" t="n">
@@ -1302,7 +1306,7 @@
       <c r="B61" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="5" t="n">
@@ -1404,7 +1408,7 @@
       <c r="B67" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="5" t="n">
@@ -1521,7 +1525,7 @@
       <c r="B74" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="5" t="n">
@@ -1672,7 +1676,7 @@
       <c r="B83" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="5" t="n">
@@ -1789,7 +1793,7 @@
       <c r="B90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="5" t="n">
@@ -1906,7 +1910,7 @@
       <c r="B97" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D97" s="5" t="n">
